--- a/test/testFiles/test.xlsx
+++ b/test/testFiles/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\PROJECTS\SITES\WordsFinder\test\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
